--- a/public/exel/sns_elem.xlsx
+++ b/public/exel/sns_elem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sbfp_ao_system\public\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BAA36-EC43-454D-A063-06AD82A829BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F869A44-0F3A-42C5-AB61-67594181DD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C1FB759-1B09-4FD4-91F7-CD6FCA4D472E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Department of Education</t>
   </si>
@@ -152,12 +152,21 @@
   <si>
     <t>GRAND TOTAL:</t>
   </si>
+  <si>
+    <t>Prepared by :</t>
+  </si>
+  <si>
+    <t>(Focal Person Name)</t>
+  </si>
+  <si>
+    <t>SBFP DepEd Focal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +266,26 @@
       <sz val="9"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -877,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,48 +989,26 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,19 +1029,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1438,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1432,149 +1472,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1">
       <c r="A6" s="1"/>
@@ -1604,93 +1644,93 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="51" t="s">
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" s="52"/>
+      <c r="Y7" s="39"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="54" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="43"/>
+      <c r="J8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="57" t="s">
+      <c r="K8" s="43"/>
+      <c r="L8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="57" t="s">
+      <c r="M8" s="43"/>
+      <c r="N8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59" t="s">
+      <c r="O8" s="46"/>
+      <c r="P8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="60" t="s">
+      <c r="Q8" s="43"/>
+      <c r="R8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="61" t="s">
+      <c r="S8" s="43"/>
+      <c r="T8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="61" t="s">
+      <c r="U8" s="43"/>
+      <c r="V8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="42"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="41"/>
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1759,7 +1799,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" thickTop="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1849,7 +1889,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +1977,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
@@ -2035,7 +2075,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2125,7 +2165,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2253,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
@@ -2311,7 +2351,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2401,7 +2441,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
@@ -2489,7 +2529,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2587,7 +2627,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -2677,7 +2717,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -2765,7 +2805,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2863,7 +2903,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -2953,7 +2993,7 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
@@ -3041,7 +3081,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="12" t="s">
         <v>24</v>
       </c>
@@ -3139,7 +3179,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -3229,7 +3269,7 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
@@ -3317,7 +3357,7 @@
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
@@ -3415,7 +3455,7 @@
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -3505,7 +3545,7 @@
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="63"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
@@ -3593,7 +3633,7 @@
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3731,7 @@
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3781,7 +3821,7 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="63"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="10" t="s">
         <v>23</v>
       </c>
@@ -3869,7 +3909,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1">
-      <c r="A33" s="65"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="16" t="s">
         <v>24</v>
       </c>
@@ -3967,7 +4007,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="15" thickBot="1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -4067,7 +4107,7 @@
       </c>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="10" t="s">
         <v>23</v>
       </c>
@@ -4165,7 +4205,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="15" thickBot="1">
-      <c r="A36" s="68"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="21" t="s">
         <v>24</v>
       </c>
@@ -4316,86 +4356,98 @@
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
     </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
+    <row r="39" spans="1:25" s="72" customFormat="1" ht="12">
+      <c r="A39" s="70"/>
+      <c r="B39" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+    </row>
+    <row r="40" spans="1:25" s="72" customFormat="1" ht="12">
+      <c r="A40" s="70"/>
+      <c r="B40" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+    </row>
+    <row r="41" spans="1:25" s="72" customFormat="1" ht="12">
+      <c r="A41" s="70"/>
+      <c r="B41" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70"/>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="26"/>
@@ -30291,16 +30343,23 @@
       <c r="Y1000" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+  <mergeCells count="35">
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="A5:Y5"/>
     <mergeCell ref="X7:Y8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -30311,16 +30370,15 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:W7"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
